--- a/biology/Histoire de la zoologie et de la botanique/Louise_Leakey/Louise_Leakey.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Louise_Leakey/Louise_Leakey.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Louise Leakey, princesse de Merode, née le 21 mars 1972[1] à Nairobi au Kenya, est une paléontologue kenyane d'origine britannique. Elle fait de la recherche et du travail de terrain sur les fossiles humains en Afrique de l'Est.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Louise Leakey, princesse de Merode, née le 21 mars 1972 à Nairobi au Kenya, est une paléontologue kenyane d'origine britannique. Elle fait de la recherche et du travail de terrain sur les fossiles humains en Afrique de l'Est.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Louise Leakey est née à Nairobi, au Kenya, en Afrique, en 1972, l'année du décès de son grand-père Louis Leakey. Passionnée de préhistoire depuis ses 6 ans, elle se lance définitivement comme paléontologue en 1977.
 Louise Leakey a obtenu son Baccalauréat international du Atlantic College, et un baccalauréat ès sciences en géologie et en biologie de l'université de Bristol. Plus tard, elle a reçu un doctorat de l'University College de Londres.
